--- a/data/trans_orig/Q55-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q55-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDDBCA7C-72F1-47FD-B0D0-D083A6976124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E2BBB7-6EC0-474A-A264-0D8008BBAED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FDEE11B7-0CA7-45B6-B82B-CBD719C4AAC6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E301748D-EC63-4531-A6F4-55AE195B338F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="188">
   <si>
     <t>Población según el número de personas del hogar en 2012 (Tasa respuesta: 1,48%)</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>5,36%</t>
+    <t>6,15%</t>
   </si>
   <si>
     <t>7,28%</t>
@@ -105,16 +105,16 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>12,36%</t>
+    <t>11,4%</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>42,21%</t>
@@ -129,19 +129,19 @@
     <t>47,03%</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
   </si>
   <si>
     <t>40,89%</t>
@@ -156,333 +156,333 @@
     <t>40,06%</t>
   </si>
   <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de personas del hogar en 2015 (Tasa respuesta: 1,16%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
     <t>29,53%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de personas del hogar en 2015 (Tasa respuesta: 1,16%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
     <t>9,55%</t>
   </si>
   <si>
@@ -513,91 +513,94 @@
     <t>9,45%</t>
   </si>
   <si>
-    <t>31,34%</t>
+    <t>31,06%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>10,87%</t>
+    <t>11,19%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>21,8%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>48,46%</t>
   </si>
   <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28039D76-29DA-411E-9FED-FCCB8D2D765B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59DBCB3-A296-4567-B8FF-3B288D157570}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1367,13 +1370,13 @@
         <v>5886</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,13 +1391,13 @@
         <v>22606</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
         <v>67</v>
@@ -1403,13 +1406,13 @@
         <v>73172</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>86</v>
@@ -1418,18 +1421,18 @@
         <v>95778</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -1447,37 +1450,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,37 +1501,37 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1546,13 @@
         <v>2074</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1558,13 +1561,13 @@
         <v>2381</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -1573,13 +1576,13 @@
         <v>4455</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1597,13 @@
         <v>2103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1609,13 +1612,13 @@
         <v>3178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1624,13 +1627,13 @@
         <v>5281</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,37 +1654,37 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,13 +1699,13 @@
         <v>4177</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -1711,13 +1714,13 @@
         <v>5559</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -1726,18 +1729,18 @@
         <v>9736</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -1747,43 +1750,43 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,43 +1799,43 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,43 +1848,43 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,13 +1897,13 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1909,13 +1912,13 @@
         <v>1053</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1924,13 +1927,13 @@
         <v>1053</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,43 +1946,43 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +1995,13 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2007,13 +2010,13 @@
         <v>1053</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2022,13 +2025,13 @@
         <v>1053</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,7 +2054,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2060,13 +2063,13 @@
         <v>1158</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2075,13 +2078,13 @@
         <v>1158</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,7 +2105,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2111,13 +2114,13 @@
         <v>5324</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -2126,13 +2129,13 @@
         <v>5324</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2150,13 @@
         <v>16231</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -2162,13 +2165,13 @@
         <v>33264</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -2177,13 +2180,13 @@
         <v>49495</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2201,13 @@
         <v>10552</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -2213,13 +2216,13 @@
         <v>34151</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2228,13 +2231,13 @@
         <v>44704</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,7 +2258,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2264,13 +2267,13 @@
         <v>5886</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2279,13 +2282,13 @@
         <v>5886</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2303,13 @@
         <v>26783</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>73</v>
@@ -2315,13 +2318,13 @@
         <v>79784</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>96</v>
@@ -2330,18 +2333,18 @@
         <v>106567</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1793B3C0-576D-43C8-BC89-36843D291EF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180264B-0FF2-4A8D-A37F-86249F955C15}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2377,7 +2380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2490,37 +2493,37 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2538,13 @@
         <v>1762</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2550,13 +2553,13 @@
         <v>2391</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2565,13 +2568,13 @@
         <v>4153</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2589,13 @@
         <v>6982</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -2601,13 +2604,13 @@
         <v>17720</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -2616,13 +2619,13 @@
         <v>24702</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2640,13 @@
         <v>6963</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -2652,13 +2655,13 @@
         <v>36465</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2667,13 +2670,13 @@
         <v>43427</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2703,13 +2706,13 @@
         <v>2325</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2718,13 +2721,13 @@
         <v>2325</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2742,13 @@
         <v>15707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -2754,13 +2757,13 @@
         <v>58900</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>64</v>
@@ -2769,18 +2772,18 @@
         <v>74607</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -2798,37 +2801,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,37 +2852,37 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2897,13 @@
         <v>867</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -2909,13 +2912,13 @@
         <v>7199</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -2924,13 +2927,13 @@
         <v>8065</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2948,13 @@
         <v>2073</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2960,13 +2963,13 @@
         <v>2244</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2975,7 +2978,7 @@
         <v>4318</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>148</v>
@@ -3002,7 +3005,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3047,13 +3050,13 @@
         <v>2940</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -3062,13 +3065,13 @@
         <v>11682</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -3077,18 +3080,18 @@
         <v>14622</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -3098,39 +3101,39 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,39 +3146,39 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,39 +3191,39 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,39 +3236,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,39 +3281,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,39 +3326,39 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3528,13 @@
         <v>9036</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -3540,13 +3543,13 @@
         <v>38709</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -3555,13 +3558,13 @@
         <v>47745</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3594,13 @@
         <v>4564</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3606,13 +3609,13 @@
         <v>4564</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3630,13 @@
         <v>18647</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
         <v>55</v>
@@ -3642,13 +3645,13 @@
         <v>70581</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>76</v>
@@ -3657,18 +3660,18 @@
         <v>89229</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q55-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q55-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E2BBB7-6EC0-474A-A264-0D8008BBAED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1B4FD8-D93A-4F11-A5DA-6F6EEAA56C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E301748D-EC63-4531-A6F4-55AE195B338F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0536172D-FEBC-463C-A5EE-8E399184E33F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,271 +81,271 @@
     <t>1,58%</t>
   </si>
   <si>
-    <t>7,29%</t>
+    <t>7,98%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
   </si>
   <si>
     <t>36,59%</t>
   </si>
   <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>55,89%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>42,8%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>31,63%</t>
   </si>
   <si>
     <t>41,95%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el número de personas del hogar en 2015 (Tasa respuesta: 1,16%)</t>
+    <t>Población según el número de personas del hogar en 2016 (Tasa respuesta: 1,16%)</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -360,22 +360,22 @@
     <t>11,22%</t>
   </si>
   <si>
-    <t>33,19%</t>
+    <t>34,21%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>14,16%</t>
+    <t>13,41%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>44,45%</t>
@@ -384,64 +384,64 @@
     <t>21,87%</t>
   </si>
   <si>
-    <t>66,58%</t>
+    <t>68,58%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>44,33%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
   </si>
   <si>
     <t>61,91%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>58,21%</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>12,39%</t>
+    <t>13,3%</t>
   </si>
   <si>
     <t>3,12%</t>
   </si>
   <si>
-    <t>11,72%</t>
+    <t>10,29%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -456,19 +456,19 @@
     <t>61,62%</t>
   </si>
   <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>55,16%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>70,52%</t>
@@ -477,28 +477,28 @@
     <t>19,21%</t>
   </si>
   <si>
-    <t>54,98%</t>
+    <t>54,01%</t>
   </si>
   <si>
     <t>29,53%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>62,33%</t>
+    <t>61,67%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>57,32%</t>
+    <t>57,01%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -513,31 +513,31 @@
     <t>9,45%</t>
   </si>
   <si>
-    <t>31,06%</t>
+    <t>32,11%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>11,19%</t>
+    <t>11,33%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>35,3%</t>
@@ -546,43 +546,43 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>48,02%</t>
+    <t>47,6%</t>
   </si>
   <si>
     <t>36,72%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
   </si>
   <si>
     <t>48,46%</t>
   </si>
   <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
   </si>
   <si>
     <t>6,47%</t>
@@ -591,16 +591,16 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>19,93%</t>
+    <t>18,43%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59DBCB3-A296-4567-B8FF-3B288D157570}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817F9ED0-F66C-4F1F-917E-4FD958C9B1F2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1370,13 +1370,13 @@
         <v>5886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,13 +1391,13 @@
         <v>22606</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>67</v>
@@ -1406,13 +1406,13 @@
         <v>73172</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>86</v>
@@ -1421,18 +1421,18 @@
         <v>95778</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -1450,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,7 +1501,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,13 +1546,13 @@
         <v>2074</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1561,13 +1561,13 @@
         <v>2381</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -1576,13 +1576,13 @@
         <v>4455</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1597,13 +1597,13 @@
         <v>2103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1612,13 +1612,13 @@
         <v>3178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1627,13 +1627,13 @@
         <v>5281</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1699,13 +1699,13 @@
         <v>4177</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -1714,13 +1714,13 @@
         <v>5559</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -1729,18 +1729,18 @@
         <v>9736</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -1750,13 +1750,13 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,13 +1799,13 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,13 +1848,13 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,13 +1897,13 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1912,13 +1912,13 @@
         <v>1053</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1927,13 +1927,13 @@
         <v>1053</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1946,13 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,13 +1995,13 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2010,13 +2010,13 @@
         <v>1053</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2025,13 +2025,13 @@
         <v>1053</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,7 +2054,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2063,13 +2063,13 @@
         <v>1158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2078,13 +2078,13 @@
         <v>1158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,7 +2105,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2114,13 +2114,13 @@
         <v>5324</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -2129,13 +2129,13 @@
         <v>5324</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,13 +2150,13 @@
         <v>16231</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -2165,13 +2165,13 @@
         <v>33264</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -2180,13 +2180,13 @@
         <v>49495</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2201,13 @@
         <v>10552</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -2216,13 +2216,13 @@
         <v>34151</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2258,7 +2258,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2303,13 +2303,13 @@
         <v>26783</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" s="7">
         <v>73</v>
@@ -2318,13 +2318,13 @@
         <v>79784</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M27" s="7">
         <v>96</v>
@@ -2333,13 +2333,13 @@
         <v>106567</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180264B-0FF2-4A8D-A37F-86249F955C15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D097B3-4269-4292-BF6E-02CFBF1F6EAA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2742,13 +2742,13 @@
         <v>15707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -2757,13 +2757,13 @@
         <v>58900</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>64</v>
@@ -2772,18 +2772,18 @@
         <v>74607</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -2816,7 +2816,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -2954,7 +2954,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3050,13 +3050,13 @@
         <v>2940</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -3065,13 +3065,13 @@
         <v>11682</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -3080,18 +3080,18 @@
         <v>14622</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -3101,39 +3101,39 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,39 +3146,39 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,39 +3191,39 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,39 +3236,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,39 +3281,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,39 +3326,39 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3630,13 @@
         <v>18647</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" s="7">
         <v>55</v>
@@ -3645,13 +3645,13 @@
         <v>70581</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M27" s="7">
         <v>76</v>
@@ -3660,13 +3660,13 @@
         <v>89229</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
